--- a/medicine/Psychotrope/Séguret_(côtes-du-rhône_villages)/Séguret_(côtes-du-rhône_villages).xlsx
+++ b/medicine/Psychotrope/Séguret_(côtes-du-rhône_villages)/Séguret_(côtes-du-rhône_villages).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Séguret_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le séguret[2], ou côtes-du-rhône villages Séguret, est un vin produit sur la commune de Séguret, dans le département de Vaucluse.
+Le séguret, ou côtes-du-rhône villages Séguret, est un vin produit sur la commune de Séguret, dans le département de Vaucluse.
 Il s'agit d'une des dix-sept dénominations géographiques au sein de l'appellation d'origine contrôlée côtes-du-rhône villages, dans la partie méridionale du vignoble de la vallée du Rhône.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Séguret_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,16 +527,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité au Moyen Âge
-La colonisation romaine fut importante. Elle se concentra dans l'actuel quartier d'Aubusson, où ont été retrouvées de nombreuses traces d'un vicus ainsi qu'une statue colossale de Jupiter et un autel à Silvain, le dieu au maillet de tonnelier.
+          <t>Antiquité au Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La colonisation romaine fut importante. Elle se concentra dans l'actuel quartier d'Aubusson, où ont été retrouvées de nombreuses traces d'un vicus ainsi qu'une statue colossale de Jupiter et un autel à Silvain, le dieu au maillet de tonnelier.
 En 611 est fondé le monastère de Prébayon, réservée aux moniales. La charte accordée par Artemius, évêque de Vaison, à l'abbesse Rusticule, de Saint-Césaire d'Arles et compagne de la reine Radegonde, mentionne la présence de vignes dans ses domaines. C'est la plus ancienne trace écrite d'un vignoble lié à une appellation dans la région.
 Le 25 février 1364, Bertrand III des Baux, frère de Raymond V, prince d’Orange, rendit hommage à Urbain V pour son fief viticole d’Olonne qu’il avait acquis à Séguret. Ce vignoble passait pour fournir un « vin de requête », c'est-à-dire un vin fort renommé.
-Période moderne
-Création en 1685 de la première confrérie de vignerons qui plaça à sa tête une femme, la « bailleresse ».
-Le 28 mai 1755, Benoît XIV, érige en marquisat le fief viticole d'Olonne en faveur de Joseph-Siffrein de Tillia, de Carpentras.
-Période contemporaine
-La cave coopérative de Roaix-Séguret a été fondée en 1960. C'est la plus récente du département. Le 2 novembre 1966, les vins de la commune eurent droit à postuler à l'appellation côtes-du-rhône villages. Ce décret à depuis été modifié le 12 février 1999[3].
-Le 4 septembre 1984, renaissance de la « Confrérie des Chevaliers du Gouste-Séguret, Compagnons de Saint-Vincent », héritière de celle fondée dans le village en 1685. C'est une confrérie mixte qui comprend : bayle, baylesse, chambellan, épistolioère, argentier, archiviste, maître de ripailles, maître des chais, cellerier, bouteiler, tabellion et bannerets. Elle s'est fixé deux chapitres annuels, celui de la Saint-Vincent, et celui d'été lors de la fête locale qui correspond maintenant à la « fête des vins ». Au cours de ces chapitres ont lieu les intronisations parmi lesquelles celles de Daniel Ceccaldi, Jean Ferniot, Éric Champ, du professeur émérite René Grosso, Corinne Le Poulain, Jean Raspail, Pierre Tchernia[4].
 </t>
         </is>
       </c>
@@ -535,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Séguret_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,12 +561,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La plus ancienne graphie est attestée en 1076 sous la forme de Secureto. Ce qualificatif provient du latin securus (sûr), appliqué à un château fort[5].
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Création en 1685 de la première confrérie de vignerons qui plaça à sa tête une femme, la « bailleresse ».
+Le 28 mai 1755, Benoît XIV, érige en marquisat le fief viticole d'Olonne en faveur de Joseph-Siffrein de Tillia, de Carpentras.
 </t>
         </is>
       </c>
@@ -566,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Séguret_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,152 +599,618 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cave coopérative de Roaix-Séguret a été fondée en 1960. C'est la plus récente du département. Le 2 novembre 1966, les vins de la commune eurent droit à postuler à l'appellation côtes-du-rhône villages. Ce décret à depuis été modifié le 12 février 1999.
+Le 4 septembre 1984, renaissance de la « Confrérie des Chevaliers du Gouste-Séguret, Compagnons de Saint-Vincent », héritière de celle fondée dans le village en 1685. C'est une confrérie mixte qui comprend : bayle, baylesse, chambellan, épistolioère, argentier, archiviste, maître de ripailles, maître des chais, cellerier, bouteiler, tabellion et bannerets. Elle s'est fixé deux chapitres annuels, celui de la Saint-Vincent, et celui d'été lors de la fête locale qui correspond maintenant à la « fête des vins ». Au cours de ces chapitres ont lieu les intronisations parmi lesquelles celles de Daniel Ceccaldi, Jean Ferniot, Éric Champ, du professeur émérite René Grosso, Corinne Le Poulain, Jean Raspail, Pierre Tchernia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Séguret_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus ancienne graphie est attestée en 1076 sous la forme de Secureto. Ce qualificatif provient du latin securus (sûr), appliqué à un château fort.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Séguret_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le terroir, situé dans le nord Vaucluse, domine la vallée de l'Ouvèze.
-Orographie
-La chaîne des Dentelles de Montmirail est la partie la plus occidentale du massif des Baronnies et constitue la première avancée des Alpes dans la vallée du Rhône.
-Géologie
-Le sol de ce terroir repose sur une série de dalles rocheuses du Tithonien (Jurassique). Il s'étage en coteaux caillouteux et terrasses argilo-calcaires.
-Climatologie
-Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps[6]. Sa spécificité est son climat méditerranéen qui constitue un atout exceptionnel :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terroir, situé dans le nord Vaucluse, domine la vallée de l'Ouvèze.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Séguret_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Orographie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chaîne des Dentelles de Montmirail est la partie la plus occidentale du massif des Baronnies et constitue la première avancée des Alpes dans la vallée du Rhône.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Séguret_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sol de ce terroir repose sur une série de dalles rocheuses du Tithonien (Jurassique). Il s'étage en coteaux caillouteux et terrasses argilo-calcaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Séguret_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps. Sa spécificité est son climat méditerranéen qui constitue un atout exceptionnel :
 Le mistral assainit le vignoble ;
 La saisonnalité des pluies est très marquée ;
 Les températures sont très chaudes pendant l'été.
-Tableau comparatif des précipitations relevées en nord Vaucluse lors de l'année 2006[7].
-Températures relevées en nord Vaucluse lors de l'année 2006[7].
+Tableau comparatif des précipitations relevées en nord Vaucluse lors de l'année 2006.
+Températures relevées en nord Vaucluse lors de l'année 2006.
 Tableau des différentes vitesses du mistral enregistrées et à sa fréquence au cours de l'année 2006. Une partie du  vignoble est protégée du mistral par les arêtes rocheuses des Dentelles de Montmirail.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Séguret_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-Le vignoble s'étend sur la seule commune de Séguret.
-Encépagement
-Les rouges sont principalement faits à partir du grenache N, complété par de la syrah N, du mourvèdre N et accessoirement du brun argenté N (localement dénommé camarèse ou vaccarèse), du carignan N, du cinsaut N, de la counoise N, du muscardin N, du piquepoul noir N et du terret noir N. 
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur la seule commune de Séguret.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Séguret_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rouges sont principalement faits à partir du grenache N, complété par de la syrah N, du mourvèdre N et accessoirement du brun argenté N (localement dénommé camarèse ou vaccarèse), du carignan N, du cinsaut N, de la counoise N, du muscardin N, du piquepoul noir N et du terret noir N. 
 Les blancs sont principalement faits avec du grenache blanc B, de la clairette B, de la marsanne B, de la roussanne B, du bourboulenc B et du viognier B, complétés accessoirement par du piquepoul blanc B et de l'ugni blanc B.
-Méthodes culturales et réglementaires
-Les vignes sont conduites en taille courte gobelet ou cordon), chaque cep devant comporter au maximum six coursons à deux yeux francs. Seul le viognier peut être mené en taille Guyot[9].
-Terroir et vins
-Des terrasses caillouteuses et des coteaux argilo-calcaires montant à l’assaut des dentelles de Montmirail composent ce terroir. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Séguret_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Méthodes culturales et réglementaires</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vignes sont conduites en taille courte gobelet ou cordon), chaque cep devant comporter au maximum six coursons à deux yeux francs. Seul le viognier peut être mené en taille Guyot.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Séguret_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Terroir et vins</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des terrasses caillouteuses et des coteaux argilo-calcaires montant à l’assaut des dentelles de Montmirail composent ce terroir. 
 Les rouges ont une robe profonde à la couleur chatoyante. Ces vins équilibrés et charpentés, sont caractérisés par un nez qui évolue d’un bouquet juvénile de fruits où domine la marasque (cerise noire) vers des nuances de menthe sauvage, de sous-bois et de venaison en vin de garde. 
 Le rosé, capiteux et généreux, à la couleur soutenue et ensoleillée, se distingue par des arômes marqués d’amande et de fruits compotés. Ne manquant pas de corps, d'esprit et de bouquet c'est un vin à boire à table avec les charcuterie et les fromages. Il s'accorde parfaitement avec la cuisine asiatique.
 Le blanc, traditionnellement, est conseillé soit en apéritif, soit sur des poissons, coquillages et crustacés. Il se révèle parfait en accompagnement d'un fromage de chèvre.
-Les millésimes
-Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Séguret_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Les millésimes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
 Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
-Structure des exploitations
-La production viti-vinicole est assurée par une cave coopérative et plusieurs domaines indépendants.
-Type de vins et gastronomie
-Les rouges évoluent des arômes de fruits à noyau en leur prime jeunesse vers des notes de cuir et de truffes en vieillissant. Ce sont des vins de grande garde - dix ans et plus - traditionnellement conseillés sur du gibier et de la venaison et ils s'accordent parfaitement avec les daubes (avignonnaise ou provençale), les civets de chevreuil, de lièvre ou de sanglier et avec une gardianne de taureau. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Séguret_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Structure des exploitations</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production viti-vinicole est assurée par une cave coopérative et plusieurs domaines indépendants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Séguret_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Type de vins et gastronomie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rouges évoluent des arômes de fruits à noyau en leur prime jeunesse vers des notes de cuir et de truffes en vieillissant. Ce sont des vins de grande garde - dix ans et plus - traditionnellement conseillés sur du gibier et de la venaison et ils s'accordent parfaitement avec les daubes (avignonnaise ou provençale), les civets de chevreuil, de lièvre ou de sanglier et avec une gardianne de taureau. 
 Le rosé, en fonction de sa vinification - par saignée ou par pressurage -  peut se garder entre 2 ou 4 ans. C'est un vin à boire à table avec les charcuteries et les fromages. Il s'accorde parfaitement avec la cuisine asiatique.
 Le blanc, traditionnellement, est conseillé soit en apéritif, soit sur des poissons, coquillages et crustacés. Il se révèle parfait en accompagnement d'un fromage de chèvre.
-Commercialisation
-La commercialisation, sur le marché intérieur, se fait à partir des CHR, cavistes, grande distribution, salons pour les particuliers et les professionnels. À l'exportation, les plus importants marchés se trouvent en Europe.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Séguret_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commercialisation, sur le marché intérieur, se fait à partir des CHR, cavistes, grande distribution, salons pour les particuliers et les professionnels. À l'exportation, les plus importants marchés se trouvent en Europe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Séguret_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Les principaux producteurs de l'appellation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cave des Vignerons de Roaix-Séguret
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Cave des Vignerons de Roaix-Séguret
 Domaine les Papillons
 Domaine l'Amandine
 Domaine Jean David
 Domaine de Cabasse
 Domaine de Mourchon
 Domaine du Souverain
-Château la Diffre
-Caveaux de dégustation
-Une charte de qualité, à laquelle adhèrent caves et domaines de Sablet, a été mise en place dans la vallée du Rhône par Inter Rhône[10]. Elle propose trois catégories différentes d'accueil en fonction des prestations offertes par les professionnels[11]. 
-La première - dite accueil de qualité - définit les conditions de cet accueil. Un panneau à l'entrée doit signaler que celui-ci est adhérent à la charte. Ce qui exige que ses abords soient en parfait état et entretenus et qu'il dispose d'un parking proche. L'intérieur du caveau doit disposer d'un sanitaire et d'un point d'eau, les visiteurs peuvent s'asseoir et ils ont de plus l'assurance que locaux et ensemble du matériel utilisé sont d'une propreté irréprochable (sols, table de dégustation, crachoirs, verres)[10].
-L'achat de vin à l'issue de la dégustation n'est jamais obligatoire. Celle-ci s'est faite dans des verres de qualité (minimum INAO). Les vins ont été servis à température idéale et les enfants se sont vu proposer des jus de fruits ou des jus de raisin. Outre l'affichage de ses horaires et des permanences, le caveau dispose de fiches techniques sur les vins, affiche les prix et offre des brochures touristiques sur l'appellation[10]. 
+Château la Diffre</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Séguret_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Les principaux producteurs de l'appellation</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Caveaux de dégustation</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une charte de qualité, à laquelle adhèrent caves et domaines de Sablet, a été mise en place dans la vallée du Rhône par Inter Rhône. Elle propose trois catégories différentes d'accueil en fonction des prestations offertes par les professionnels. 
+La première - dite accueil de qualité - définit les conditions de cet accueil. Un panneau à l'entrée doit signaler que celui-ci est adhérent à la charte. Ce qui exige que ses abords soient en parfait état et entretenus et qu'il dispose d'un parking proche. L'intérieur du caveau doit disposer d'un sanitaire et d'un point d'eau, les visiteurs peuvent s'asseoir et ils ont de plus l'assurance que locaux et ensemble du matériel utilisé sont d'une propreté irréprochable (sols, table de dégustation, crachoirs, verres).
+L'achat de vin à l'issue de la dégustation n'est jamais obligatoire. Celle-ci s'est faite dans des verres de qualité (minimum INAO). Les vins ont été servis à température idéale et les enfants se sont vu proposer des jus de fruits ou des jus de raisin. Outre l'affichage de ses horaires et des permanences, le caveau dispose de fiches techniques sur les vins, affiche les prix et offre des brochures touristiques sur l'appellation. 
 Caveaux à Sablet
-La seconde - dite accueil de service - précise que le caveau est ouvert cinq jours sur sept toute l'année et six jours sur sept de juin à septembre. La dégustation se fait dans des verres cristallins voire en cristal. Accessible aux personnes à mobilité réduite, il est chauffé l'hiver et frais l'été, de plus il dispose d'un éclairage satisfaisant (néons interdits). Sa décoration est en relation avec la vigne et le vin, une carte de l'appellation est affichée. Il dispose d'un site internet et fournit à sa clientèle des informations sur la gastronomie et les produits agroalimentaires locaux, les lieux touristiques et les autres caveaux adhérant à la charte. Des plus les fiches techniques sur les vins proposés sont disponibles en anglais[12]
+La seconde - dite accueil de service - précise que le caveau est ouvert cinq jours sur sept toute l'année et six jours sur sept de juin à septembre. La dégustation se fait dans des verres cristallins voire en cristal. Accessible aux personnes à mobilité réduite, il est chauffé l'hiver et frais l'été, de plus il dispose d'un éclairage satisfaisant (néons interdits). Sa décoration est en relation avec la vigne et le vin, une carte de l'appellation est affichée. Il dispose d'un site internet et fournit à sa clientèle des informations sur la gastronomie et les produits agroalimentaires locaux, les lieux touristiques et les autres caveaux adhérant à la charte. Des plus les fiches techniques sur les vins proposés sont disponibles en anglais
 Caveaux à Sablet
-La troisième - dite accueil d'excellence - propose d'autres services dont la mise en relation avec d'autres caveaux, la réservation de restaurants ou d'hébergements. Le caveau assure l'expédition en France pour un minimum de vingt-quatre bouteilles. Il dispose d'un site Internet en version anglaise et le personnel d'accueil parle au moins l'anglais[13].
+La troisième - dite accueil d'excellence - propose d'autres services dont la mise en relation avec d'autres caveaux, la réservation de restaurants ou d'hébergements. Le caveau assure l'expédition en France pour un minimum de vingt-quatre bouteilles. Il dispose d'un site Internet en version anglaise et le personnel d'accueil parle au moins l'anglais.
 Caveaux à Sablet
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Séguret_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9guret_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>La place de Séguret parmi les côtes-du-rhône villages</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
